--- a/data/trans_camb/P1803_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1803_2016_2023-Clase-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.25118931585426</v>
+        <v>1.001298214131409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.862563359875478</v>
+        <v>4.593563864178886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.128560283790636</v>
+        <v>3.899392416312198</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.4803870811057</v>
+        <v>9.247509248722148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.83145597531346</v>
+        <v>13.0333408830303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.837163605126516</v>
+        <v>9.866981192798956</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1139588737344066</v>
+        <v>0.08728781688743444</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4393389156639145</v>
+        <v>0.4400016433435204</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4198265410451106</v>
+        <v>0.4481800175704567</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.764825687618345</v>
+        <v>1.685005090609553</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.351431020676099</v>
+        <v>2.489492532555437</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.646132037333136</v>
+        <v>1.705195258668022</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.052141319396538</v>
+        <v>4.052141319396537</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>6.398989446124386</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8901596032770807</v>
+        <v>0.9705199144371367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.244142341166382</v>
+        <v>1.857528092280071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.381367571593439</v>
+        <v>2.232469822758234</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.316192628979736</v>
+        <v>7.413488623099669</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.91442062292527</v>
+        <v>10.21443883373017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.482470460567625</v>
+        <v>7.58253347059379</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>1.08829122633255</v>
+        <v>1.088291226332549</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.7358686338173698</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.08168698458624313</v>
+        <v>0.09188684125605744</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1868901215115014</v>
+        <v>0.1259448636408159</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.321071641569706</v>
+        <v>0.2783243828559921</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.060871698714193</v>
+        <v>2.963837006963205</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.646472218298661</v>
+        <v>1.551279106796463</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.535388685417332</v>
+        <v>1.532237580852462</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>5.536730486992875</v>
+        <v>5.536730486992872</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.205748955458046</v>
+        <v>2.205748955458045</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>4.684648948508753</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.979250892938835</v>
+        <v>2.344013796594057</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.38854336586632</v>
+        <v>-2.999759745974807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.775338978763618</v>
+        <v>2.051651327776626</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.155139096324143</v>
+        <v>9.049720785656845</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.965646784787648</v>
+        <v>6.614837512309657</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.814153461298195</v>
+        <v>7.652734474650694</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1.193537021805882</v>
+        <v>1.193537021805881</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.3216233182856437</v>
+        <v>0.3216233182856434</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.9052894946279887</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2918020870836858</v>
+        <v>0.3365879645161273</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.345058964943926</v>
+        <v>-0.3442221241327877</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2299537229028174</v>
+        <v>0.2912994430364279</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.722355073635351</v>
+        <v>2.611144185449286</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.667755210903199</v>
+        <v>1.665080137009876</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.876695208391346</v>
+        <v>1.943301259261242</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>3.886771885399003</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.953074687572505</v>
+        <v>2.953074687572506</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1674877716881458</v>
+        <v>0.2272044006969273</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.559759109841286</v>
+        <v>1.531022012771052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.395215845210697</v>
+        <v>1.210106893993631</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.376156251464847</v>
+        <v>4.451935554532296</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.312543040335587</v>
+        <v>6.32945718107796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.424851832764297</v>
+        <v>4.413675087663204</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.6258844518415443</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.564151678693275</v>
+        <v>0.5641516786932753</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0130749113028416</v>
+        <v>0.03352885140234238</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1916718987419725</v>
+        <v>0.190363807383194</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2185699062422192</v>
+        <v>0.1972303630241125</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.16817130803537</v>
+        <v>1.202783285425383</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.266735237207587</v>
+        <v>1.295404648675003</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9791523007269266</v>
+        <v>0.9804524137866919</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2.37401747029385</v>
+        <v>2.374017470293849</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>4.082671392349798</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.431086194222563</v>
+        <v>3.431086194222562</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.01710026905602278</v>
+        <v>-0.1967026986962868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.843543285007595</v>
+        <v>1.930975065597967</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.985174491479124</v>
+        <v>1.883688968212407</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.172303622415283</v>
+        <v>5.245769876027456</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.207445668665615</v>
+        <v>6.429387552670447</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.219135639487671</v>
+        <v>5.190108219056955</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.6831955943486765</v>
+        <v>0.6831955943486762</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.9480164972405692</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8737897097526933</v>
+        <v>0.8737897097526929</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04635555514930911</v>
+        <v>-0.05145093485920035</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3029085272083335</v>
+        <v>0.3291822096502755</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3984252278830437</v>
+        <v>0.4008832452591468</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.951004489189953</v>
+        <v>2.098859690863804</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.927643083258721</v>
+        <v>2.051785540606068</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.650122796885046</v>
+        <v>1.71169269167736</v>
       </c>
     </row>
     <row r="34">
@@ -1100,7 +1100,7 @@
         <v>1.649730648855952</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.639385863546156</v>
+        <v>1.639385863546158</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.422377239120537</v>
+        <v>-2.736821299454685</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2554993230613636</v>
+        <v>-0.3461646292792256</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.3899537787741403</v>
+        <v>-0.1791105924818243</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.024132017870764</v>
+        <v>8.407717047969795</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.7185866238498</v>
+        <v>3.831032540885312</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.817200254430524</v>
+        <v>3.895208836238671</v>
       </c>
     </row>
     <row r="37">
@@ -1148,10 +1148,10 @@
         <v>0.4474456238293279</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.4162600489299786</v>
+        <v>0.4162600489299788</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.42138856427789</v>
+        <v>0.4213885642778903</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.67119866736985</v>
+        <v>-0.6537184786972348</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.06600174565411787</v>
+        <v>-0.08670229308402659</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1045293709091872</v>
+        <v>-0.06525467796580756</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.864816691303941</v>
+        <v>4.221106910844266</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.173993830990078</v>
+        <v>1.267979563472228</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.170426844715902</v>
+        <v>1.257151062782076</v>
       </c>
     </row>
     <row r="40">
@@ -1203,10 +1203,10 @@
         <v>3.497082058935312</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>4.507149151498795</v>
+        <v>4.507149151498794</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.018764436024445</v>
+        <v>4.018764436024446</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.228448451722535</v>
+        <v>2.355926307170571</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.425978618355156</v>
+        <v>3.329436451815624</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.187803779855371</v>
+        <v>3.200607869541593</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.750690195090558</v>
+        <v>4.829989612447707</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.861494713336719</v>
+        <v>5.696509611263332</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.951507010181066</v>
+        <v>4.982168404304164</v>
       </c>
     </row>
     <row r="43">
@@ -1254,10 +1254,10 @@
         <v>0.7686744740974837</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.8133316921905533</v>
+        <v>0.813331692190553</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.7948500726977956</v>
+        <v>0.794850072697796</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4238082595319372</v>
+        <v>0.4726506543628213</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.5582694596340758</v>
+        <v>0.5422988727731674</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.569323795492412</v>
+        <v>0.579143069543789</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.169664597140318</v>
+        <v>1.216025944885927</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.197158162438532</v>
+        <v>1.175978755493267</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.056321640878909</v>
+        <v>1.073156987635884</v>
       </c>
     </row>
     <row r="46">
